--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671875.4549438655</v>
+        <v>669312.5177492908</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.1776497127974</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>61.19325431520674</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7.085048196143475</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.08558457273279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>108.4721783769034</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>334.8630465285285</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.3934276525037</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.72972425579977</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.8488061766259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>286.2537564402776</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6148160492603</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>111.6494494965822</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.1918454193162</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754641</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131468</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
-        <v>95.2881110122496</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W16" t="n">
-        <v>142.3575218158273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,13 +1898,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046962</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.10998325717104</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520957</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>50.06209150957563</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999782</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.165657180484</v>
+        <v>897.7254217792843</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.203140240072</v>
+        <v>528.7629048388726</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
         <v>466.9515368437143</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395431</v>
+        <v>1284.325261843406</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>304.7087196946019</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260735</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4486,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263848</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>641.3764301283675</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>420.5838509848373</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.50778578647</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.50778578647</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.24208717972</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.50778578647</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>75.21620500820489</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>223.9551031446987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1291.481876182945</v>
+        <v>656.1154853312728</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.481876182945</v>
+        <v>656.1154853312728</v>
       </c>
       <c r="D8" t="n">
-        <v>933.2161775761945</v>
+        <v>656.1154853312728</v>
       </c>
       <c r="E8" t="n">
-        <v>547.4279249779502</v>
+        <v>656.1154853312728</v>
       </c>
       <c r="F8" t="n">
-        <v>540.4824242287467</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.481876182945</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057899</v>
@@ -4881,28 +4881,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.0729169938204</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4960,16 +4960,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1421.08549187636</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1421.08549187636</v>
+        <v>1243.663993022928</v>
       </c>
       <c r="U10" t="n">
-        <v>1131.967154380198</v>
+        <v>954.5456555267655</v>
       </c>
       <c r="V10" t="n">
-        <v>877.2826661743111</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="W10" t="n">
-        <v>587.8654961373505</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="X10" t="n">
-        <v>587.8654961373505</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y10" t="n">
-        <v>367.0729169938204</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.19673200788</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409636</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200284</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894392</v>
       </c>
       <c r="L12" t="n">
-        <v>570.9683475412853</v>
+        <v>914.0526986331903</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.986701793413</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.082665192749</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.959140192943</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2331.959140192943</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>929.4491011061237</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="D13" t="n">
-        <v>779.332461693788</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113949</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134845</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.265812184578</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.587029898961</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.510816213687</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.8263280078</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.8263280078</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.03374886427</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876681</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597612</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597612</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773681</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>117.1600804794578</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.340348461438</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179079</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
         <v>407.9027098310023</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,7 +6601,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
         <v>93.81666304797187</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7017,10 +7017,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,13 +7789,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538929938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
-        <v>30.36925650589404</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.8516348198496</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>379.1528904599101</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.1124749751914</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729354</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.2556177050656</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>86.05037734620936</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823214</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393165</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>142.4141550350978</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864963</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950730.4202770049</v>
+        <v>950730.4202770054</v>
       </c>
     </row>
     <row r="3">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503244</v>
+        <v>375475.6212503245</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
@@ -26347,7 +26347,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361763</v>
+        <v>495753.0386361757</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>11452.26311504189</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317442</v>
+        <v>129476.544431744</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704897</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91904.36150325154</v>
+        <v>91904.36150325164</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,34 +26427,34 @@
         <v>6890.891875482008</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707363</v>
-      </c>
       <c r="H4" t="n">
-        <v>6897.42449670737</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707368</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707363</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707415</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-924118.2962686913</v>
+        <v>-924293.5225871005</v>
       </c>
       <c r="C6" t="n">
+        <v>185673.3856606723</v>
+      </c>
+      <c r="D6" t="n">
         <v>185673.3856606721</v>
       </c>
-      <c r="D6" t="n">
-        <v>185673.3856606717</v>
-      </c>
       <c r="E6" t="n">
-        <v>-201446.1732064814</v>
+        <v>-201492.0782020464</v>
       </c>
       <c r="F6" t="n">
-        <v>284101.0824093475</v>
+        <v>284066.3444839109</v>
       </c>
       <c r="G6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.6075989532</v>
       </c>
       <c r="H6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.6075989527</v>
       </c>
       <c r="I6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.6075989529</v>
       </c>
       <c r="J6" t="n">
-        <v>127948.1677144061</v>
+        <v>127913.4297889706</v>
       </c>
       <c r="K6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989527</v>
       </c>
       <c r="L6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="M6" t="n">
-        <v>166076.8010926445</v>
+        <v>166042.0631672089</v>
       </c>
       <c r="N6" t="n">
-        <v>292476.328168684</v>
+        <v>292441.5902432481</v>
       </c>
       <c r="O6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="P6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989529</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>423.9761565988462</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.934451625288602</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>423.9761565988465</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.93445162528792</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259682</v>
+        <v>519.5604582259673</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259682</v>
+        <v>519.5604582259673</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259682</v>
+        <v>519.5604582259673</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.7045571308335</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>293.4897873054762</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.7463956092045</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>47.06732354373327</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.3376730259653</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>81.06687094810081</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.73584717546893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>120.6222893014339</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>293.9328867236937</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>83.01301086515524</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>26.55685057789572</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269588</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q12" t="n">
-        <v>363.028733255008</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824147</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>584.5244463807092</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>421.566356098768</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825144</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.0469591689864</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
